--- a/data/flight_dataset_description.xlsx
+++ b/data/flight_dataset_description.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flight-delay-analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flight-delay-analysis-py\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset description" sheetId="1" r:id="rId1"/>
     <sheet name="Questions" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="177">
   <si>
     <t>Column Name</t>
   </si>
@@ -447,6 +448,337 @@
     <t>22. Hãng nào thường bị ảnh hưởng nhiều bởi thời tiết nhất?</t>
   </si>
   <si>
+    <t>24. Delay do “Carrier” có xu hướng xảy ra ở sân bay nào nhiều nhất?</t>
+  </si>
+  <si>
+    <t>25. TAXI_OUT dài có liên quan đến ARR_DELAY cao hơn không?</t>
+  </si>
+  <si>
+    <t>26. Thời gian bay dài hơn có làm tăng khả năng delay không?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">28. Các chuyến </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đêm muộn hoặc sáng sớm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> có ít delay hơn không?</t>
+    </r>
+  </si>
+  <si>
+    <t>Hủy chuyến và diverted:</t>
+  </si>
+  <si>
+    <t>29. Nguyên nhân hủy chuyến (A–D) nào phổ biến nhất?</t>
+  </si>
+  <si>
+    <t>30. Tháng nào có nhiều chuyến bị hủy nhất?</t>
+  </si>
+  <si>
+    <t>31. Hãng nào có tỉ lệ diverted cao nhất?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">32. Có mối quan hệ giữa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>weather delay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cancellation code = B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> không?</t>
+    </r>
+  </si>
+  <si>
+    <t>Phân tích dự đoán (Predictive / Machine Learning)</t>
+  </si>
+  <si>
+    <t>Phân loại (Classification):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">33. Xây dựng mô hình dự đoán </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chuyến bay có delay &gt;15 phút</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (0/1).</t>
+    </r>
+  </si>
+  <si>
+    <t>34. Các đặc trưng nào (giờ khởi hành, hãng, sân bay, tháng, distance) ảnh hưởng mạnh nhất đến khả năng delay?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">35. Có thể dự đoán </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chuyến bay bị hủy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dựa trên đặc trưng thời gian và sân bay không?</t>
+    </r>
+  </si>
+  <si>
+    <t>Hồi quy (Regression):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">36. Dự đoán </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>số phút delay (ARR_DELAY)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>37. So sánh hiệu năng giữa các mô hình: Linear Regression, Random Forest, XGBoost,…</t>
+  </si>
+  <si>
+    <t>38. Đánh giá độ quan trọng của feature (Feature Importance).</t>
+  </si>
+  <si>
+    <t>Chuỗi thời gian (Time Series):</t>
+  </si>
+  <si>
+    <t>39. Phân tích xu hướng delay trung bình theo tháng / quý (2019–2023).</t>
+  </si>
+  <si>
+    <t>40. Dự báo delay trung bình tháng tiếp theo.</t>
+  </si>
+  <si>
+    <t>So sánh &amp; mở rộng (Advanced / Deep Insights)</t>
+  </si>
+  <si>
+    <t>Trước và sau COVID:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">41. So sánh delay trung bình </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trước 2020 vs sau 2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>42. Tỉ lệ hủy chuyến tăng bao nhiêu phần trăm trong năm 2020?</t>
+  </si>
+  <si>
+    <t>43. Sau COVID, hãng nào phục hồi nhanh nhất (tăng số chuyến / giảm delay)?</t>
+  </si>
+  <si>
+    <t>Hiệu suất hãng &amp; sân bay:</t>
+  </si>
+  <si>
+    <t>44. Xếp hạng hãng theo độ đúng giờ (on-time rate).</t>
+  </si>
+  <si>
+    <t>45. Xếp hạng 10 sân bay có delay nhiều nhất.</t>
+  </si>
+  <si>
+    <t>46. Xếp hạng 10 tuyến bay (ORIGIN–DEST) có delay trung bình cao nhất.</t>
+  </si>
+  <si>
+    <t>47. Hãng nào duy trì hiệu suất ổn định nhất qua các năm (độ lệch chuẩn delay thấp nhất)?</t>
+  </si>
+  <si>
+    <t>Phân tích không gian:</t>
+  </si>
+  <si>
+    <t>48. Vẽ heatmap delay giữa các cặp ORIGIN–DEST.</t>
+  </si>
+  <si>
+    <t>49. Vẽ bản đồ (map) thể hiện delay trung bình tại từng sân bay.</t>
+  </si>
+  <si>
+    <t>Tối ưu hóa:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50. Dựa trên dữ liệu, gợi ý </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>khung giờ bay tối ưu nhất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để tránh delay.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">51. Gợi ý </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hãng hoặc sân bay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đáng tin cậy nhất để chọn chuyến bay.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Tổng số chuyến bay mỗi năm từ 2019–2023 là bao nhiêu?</t>
+  </si>
+  <si>
+    <t>2. Xu hướng số chuyến bay qua các năm có giảm vì COVID không?</t>
+  </si>
+  <si>
+    <t>3. Trung bình mỗi tháng có bao nhiêu chuyến bay?</t>
+  </si>
+  <si>
+    <t>4. Hãng hàng không nào có nhiều chuyến bay nhất mỗi năm?</t>
+  </si>
+  <si>
+    <t>5. Sân bay nào là điểm khởi hành / điểm đến phổ biến nhất?</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">23. Có mối tương quan giữa </t>
     </r>
@@ -480,7 +812,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>AIR_TIME / DELAY</t>
+      <t xml:space="preserve">AIR_TIME </t>
     </r>
     <r>
       <rPr>
@@ -494,338 +826,122 @@
     </r>
   </si>
   <si>
-    <t>24. Delay do “Carrier” có xu hướng xảy ra ở sân bay nào nhiều nhất?</t>
-  </si>
-  <si>
-    <t>25. TAXI_OUT dài có liên quan đến ARR_DELAY cao hơn không?</t>
-  </si>
-  <si>
-    <t>26. Thời gian bay dài hơn có làm tăng khả năng delay không?</t>
-  </si>
-  <si>
-    <t>27. Giữa các vùng địa lý (Đông / Tây / Nam / Bắc Mỹ), delay khác nhau thế nào?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">28. Các chuyến </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>đêm muộn hoặc sáng sớm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> có ít delay hơn không?</t>
-    </r>
-  </si>
-  <si>
-    <t>Hủy chuyến và diverted:</t>
-  </si>
-  <si>
-    <t>29. Nguyên nhân hủy chuyến (A–D) nào phổ biến nhất?</t>
-  </si>
-  <si>
-    <t>30. Tháng nào có nhiều chuyến bị hủy nhất?</t>
-  </si>
-  <si>
-    <t>31. Hãng nào có tỉ lệ diverted cao nhất?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">32. Có mối quan hệ giữa </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>weather delay</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> và </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cancellation code = B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> không?</t>
-    </r>
-  </si>
-  <si>
-    <t>Phân tích dự đoán (Predictive / Machine Learning)</t>
-  </si>
-  <si>
-    <t>Phân loại (Classification):</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">33. Xây dựng mô hình dự đoán </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chuyến bay có delay &gt;15 phút</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (0/1).</t>
-    </r>
-  </si>
-  <si>
-    <t>34. Các đặc trưng nào (giờ khởi hành, hãng, sân bay, tháng, distance) ảnh hưởng mạnh nhất đến khả năng delay?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">35. Có thể dự đoán </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chuyến bay bị hủy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dựa trên đặc trưng thời gian và sân bay không?</t>
-    </r>
-  </si>
-  <si>
-    <t>Hồi quy (Regression):</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">36. Dự đoán </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>số phút delay (ARR_DELAY)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>37. So sánh hiệu năng giữa các mô hình: Linear Regression, Random Forest, XGBoost,…</t>
-  </si>
-  <si>
-    <t>38. Đánh giá độ quan trọng của feature (Feature Importance).</t>
-  </si>
-  <si>
-    <t>Chuỗi thời gian (Time Series):</t>
-  </si>
-  <si>
-    <t>39. Phân tích xu hướng delay trung bình theo tháng / quý (2019–2023).</t>
-  </si>
-  <si>
-    <t>40. Dự báo delay trung bình tháng tiếp theo.</t>
-  </si>
-  <si>
-    <t>So sánh &amp; mở rộng (Advanced / Deep Insights)</t>
-  </si>
-  <si>
-    <t>Trước và sau COVID:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">41. So sánh delay trung bình </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>trước 2020 vs sau 2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>42. Tỉ lệ hủy chuyến tăng bao nhiêu phần trăm trong năm 2020?</t>
-  </si>
-  <si>
-    <t>43. Sau COVID, hãng nào phục hồi nhanh nhất (tăng số chuyến / giảm delay)?</t>
-  </si>
-  <si>
-    <t>Hiệu suất hãng &amp; sân bay:</t>
-  </si>
-  <si>
-    <t>44. Xếp hạng hãng theo độ đúng giờ (on-time rate).</t>
-  </si>
-  <si>
-    <t>45. Xếp hạng 10 sân bay có delay nhiều nhất.</t>
-  </si>
-  <si>
-    <t>46. Xếp hạng 10 tuyến bay (ORIGIN–DEST) có delay trung bình cao nhất.</t>
-  </si>
-  <si>
-    <t>47. Hãng nào duy trì hiệu suất ổn định nhất qua các năm (độ lệch chuẩn delay thấp nhất)?</t>
-  </si>
-  <si>
-    <t>Phân tích không gian:</t>
-  </si>
-  <si>
-    <t>48. Vẽ heatmap delay giữa các cặp ORIGIN–DEST.</t>
-  </si>
-  <si>
-    <t>49. Vẽ bản đồ (map) thể hiện delay trung bình tại từng sân bay.</t>
-  </si>
-  <si>
-    <t>Tối ưu hóa:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">50. Dựa trên dữ liệu, gợi ý </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>khung giờ bay tối ưu nhất</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> để tránh delay.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">51. Gợi ý </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hãng hoặc sân bay</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> đáng tin cậy nhất để chọn chuyến bay.</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Tổng số chuyến bay mỗi năm từ 2019–2023 là bao nhiêu?</t>
-  </si>
-  <si>
-    <t>2. Xu hướng số chuyến bay qua các năm có giảm vì COVID không?</t>
-  </si>
-  <si>
-    <t>3. Trung bình mỗi tháng có bao nhiêu chuyến bay?</t>
-  </si>
-  <si>
-    <t>4. Hãng hàng không nào có nhiều chuyến bay nhất mỗi năm?</t>
-  </si>
-  <si>
-    <t>5. Sân bay nào là điểm khởi hành / điểm đến phổ biến nhất?</t>
+    <t>Airline</t>
+  </si>
+  <si>
+    <t>List box</t>
+  </si>
+  <si>
+    <t>All carriers, …</t>
+  </si>
+  <si>
+    <t>Flight Status</t>
+  </si>
+  <si>
+    <t>All flights, On-time, Delayed, Cancelled, Diverted</t>
+  </si>
+  <si>
+    <t>Date Range</t>
+  </si>
+  <si>
+    <t>All dates, Latest month, Latest 3 months, Latest 6 months, Last year</t>
+  </si>
+  <si>
+    <t>Flight Distance Category</t>
+  </si>
+  <si>
+    <t>All Distances, Short-haul (&lt;500 miles), Medium-haul (500-150 miles), Long-haul (&gt;1500 miles)</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Total Flights</t>
+  </si>
+  <si>
+    <t>By Airline</t>
+  </si>
+  <si>
+    <t>By Status</t>
+  </si>
+  <si>
+    <t>By Date Range</t>
+  </si>
+  <si>
+    <t>By Flight Distance Category</t>
+  </si>
+  <si>
+    <t>Avg Arrival Delay (min)</t>
+  </si>
+  <si>
+    <t>Cancellation Rate</t>
+  </si>
+  <si>
+    <t>Avg Distance (miles)</t>
+  </si>
+  <si>
+    <t>On-Time Rate</t>
+  </si>
+  <si>
+    <t>Delay Rate</t>
+  </si>
+  <si>
+    <t>Departure and Arrival Delays Over Time</t>
+  </si>
+  <si>
+    <t>Delay Type</t>
+  </si>
+  <si>
+    <t>Departure Delay
+Arrival Delay</t>
+  </si>
+  <si>
+    <t>Time Interval
+Day, Week, Month, Quarter</t>
+  </si>
+  <si>
+    <t>Aggregation Method
+Mean, Median, Max</t>
+  </si>
+  <si>
+    <t>Cancellation Rate by Airline</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>Top 10, 15, All</t>
+  </si>
+  <si>
+    <t>Delay Causes Breakdown</t>
+  </si>
+  <si>
+    <t>Cause type</t>
+  </si>
+  <si>
+    <t>(Carrier, Weather, NAS, Security, Late Aircraft)</t>
+  </si>
+  <si>
+    <t>Shows total delay minutes or count of delayed flights.</t>
+  </si>
+  <si>
+    <t>Route Performance: Distance vs Average Delay</t>
+  </si>
+  <si>
+    <t>Scatter plot showing the relationship between flight distance and average arrival delay for the top 100 routes by flight frequency. Each point represents an origin-destination pair.</t>
+  </si>
+  <si>
+    <t>Airline On-Time Performance Comparison</t>
+  </si>
+  <si>
+    <t>Chart 1 Airline:</t>
+  </si>
+  <si>
+    <t>Chart 2 Airline:</t>
+  </si>
+  <si>
+    <t>Y-Axis Range:
+Shared, Individual</t>
   </si>
 </sst>
 </file>
@@ -868,12 +984,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -940,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -957,6 +1085,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -964,12 +1128,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -980,24 +1138,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,10 +1446,10 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1322,10 +1462,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1452,7 +1592,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1481,7 +1621,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1631,12 +1771,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1645,432 +1785,606 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.77734375" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="9" t="s">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="9" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="9" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="9" t="s">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="9" t="s">
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="9" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="9" t="s">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="9" t="s">
+    <row r="28" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="21" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="11" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="9" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="9" t="s">
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="9" t="s">
+    <row r="32" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="21" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="C32" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="11" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="9" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="9" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="21" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="11" t="s">
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="9" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="19"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="9" t="s">
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
+      <c r="B38" s="21" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="11" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="9" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="9" t="s">
+      <c r="B40" s="21" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="C40" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="11" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="9" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="9" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="19"/>
+      <c r="B43" s="21" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="19"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="9" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="9" t="s">
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="9" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="21" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="11" t="s">
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="9" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="19"/>
+      <c r="B49" s="21" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="11" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="9" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A41:A51"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A19:A32"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B48"/>
     <mergeCell ref="A1:A18"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B42"/>
     <mergeCell ref="B1:B5"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="B28:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C14" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C15" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C21" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>